--- a/Personal Progress.xlsx
+++ b/Personal Progress.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CCB177-0F5E-4469-830B-7C530CDA05EC}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C61C9C4-00B6-470E-AB99-1FC8A426BBE9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DO_TO_LIST" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -40,9 +41,6 @@
     <t>Vikash</t>
   </si>
   <si>
-    <t>Create POM for login page</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
@@ -68,6 +66,21 @@
   </si>
   <si>
     <t>Parul</t>
+  </si>
+  <si>
+    <t>Determine different types of users of this web app</t>
+  </si>
+  <si>
+    <t>Indiviudal</t>
+  </si>
+  <si>
+    <t>non individual</t>
+  </si>
+  <si>
+    <t>Adding individual members</t>
+  </si>
+  <si>
+    <t>Create test scripts</t>
   </si>
 </sst>
 </file>
@@ -389,7 +402,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +419,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -426,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
         <v>43272</v>
@@ -446,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
         <v>43272</v>
@@ -460,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>43272</v>
@@ -471,27 +484,63 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5332693-3297-423F-9DAE-28C177ADD1D9}">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Personal Progress.xlsx
+++ b/Personal Progress.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C61C9C4-00B6-470E-AB99-1FC8A426BBE9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3AD986-BA4A-47EF-921E-1B45ABC58B1E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="DO_TO_LIST" sheetId="2" r:id="rId2"/>
+    <sheet name="DO_TO_TESTS" sheetId="2" r:id="rId1"/>
+    <sheet name="Progress" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Vikash</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>TEST_PAGE</t>
   </si>
   <si>
@@ -68,26 +65,95 @@
     <t>Parul</t>
   </si>
   <si>
-    <t>Determine different types of users of this web app</t>
-  </si>
-  <si>
-    <t>Indiviudal</t>
-  </si>
-  <si>
-    <t>non individual</t>
-  </si>
-  <si>
-    <t>Adding individual members</t>
-  </si>
-  <si>
     <t>Create test scripts</t>
+  </si>
+  <si>
+    <t>Membership</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Non-individual</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Signature</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Transaction Entry</t>
+  </si>
+  <si>
+    <t>Reciept/Payment</t>
+  </si>
+  <si>
+    <t>View Transaction</t>
+  </si>
+  <si>
+    <t>Term Deposit</t>
+  </si>
+  <si>
+    <t>Fixed Deposit</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Report Generation</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>ENG/HIN/KAN</t>
+  </si>
+  <si>
+    <t>Modifications</t>
+  </si>
+  <si>
+    <t>Alerts</t>
+  </si>
+  <si>
+    <t>Functionalities to be tested</t>
+  </si>
+  <si>
+    <t>Functionalities Completed</t>
+  </si>
+  <si>
+    <t>Index:</t>
+  </si>
+  <si>
+    <t>Functionalities:</t>
+  </si>
+  <si>
+    <t>Create One Page Object Repository</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +161,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,13 +196,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,11 +505,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5332693-3297-423F-9DAE-28C177ADD1D9}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -439,13 +707,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1">
         <v>43272</v>
@@ -459,7 +727,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
         <v>43272</v>
@@ -473,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1">
         <v>43272</v>
@@ -484,63 +752,66 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1">
+        <v>43272</v>
+      </c>
+      <c r="F13" s="1">
+        <v>43273</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5332693-3297-423F-9DAE-28C177ADD1D9}">
-  <dimension ref="A2:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="73.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>43272</v>
+      </c>
+      <c r="F15" s="1">
+        <v>43273</v>
       </c>
     </row>
   </sheetData>

--- a/Personal Progress.xlsx
+++ b/Personal Progress.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3AD986-BA4A-47EF-921E-1B45ABC58B1E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3C294F05-C1FA-4CA9-8AE0-3DAB38825EA1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO_TO_TESTS" sheetId="2" r:id="rId1"/>
-    <sheet name="Progress" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Task_ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="48">
   <si>
     <t>Start Date</t>
   </si>
@@ -41,15 +31,6 @@
     <t>Vikash</t>
   </si>
   <si>
-    <t>TEST_PAGE</t>
-  </si>
-  <si>
-    <t>Create test scenarios</t>
-  </si>
-  <si>
-    <t>Create test cases</t>
-  </si>
-  <si>
     <t>Harsh</t>
   </si>
   <si>
@@ -65,9 +46,6 @@
     <t>Parul</t>
   </si>
   <si>
-    <t>Create test scripts</t>
-  </si>
-  <si>
     <t>Membership</t>
   </si>
   <si>
@@ -143,17 +121,56 @@
     <t>Index:</t>
   </si>
   <si>
-    <t>Functionalities:</t>
-  </si>
-  <si>
-    <t>Create One Page Object Repository</t>
+    <t>Functionalities In progress</t>
+  </si>
+  <si>
+    <t>Sub Module</t>
+  </si>
+  <si>
+    <t>All Members</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Implement KDT</t>
+  </si>
+  <si>
+    <t>Implement DDT</t>
+  </si>
+  <si>
+    <t>Implement Logger</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Sections</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>1. Create Test scenarios</t>
+  </si>
+  <si>
+    <t>2. Create Test Cases</t>
+  </si>
+  <si>
+    <t>3. Create KDT Scripts</t>
+  </si>
+  <si>
+    <t>4. Create Data sheet for DDT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +184,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,12 +208,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -211,20 +254,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,315 +680,1239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5332693-3297-423F-9DAE-28C177ADD1D9}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G5" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="17">
+        <v>43273</v>
+      </c>
+      <c r="G6" s="17">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="17">
+        <v>43273</v>
+      </c>
+      <c r="G7" s="17">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G9" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G10" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="36">
+        <v>43274</v>
+      </c>
+      <c r="G11" s="36">
+        <v>43275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="36">
+        <v>43274</v>
+      </c>
+      <c r="G12" s="36">
+        <v>43275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G15" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G16" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="36">
+        <v>43274</v>
+      </c>
+      <c r="G17" s="36">
+        <v>43275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="36">
+        <v>43276</v>
+      </c>
+      <c r="G18" s="36">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G20" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G21" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="36">
+        <v>43274</v>
+      </c>
+      <c r="G22" s="36">
+        <v>43275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="36">
+        <v>43275</v>
+      </c>
+      <c r="G23" s="36">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G25" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G26" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="36">
+        <v>43274</v>
+      </c>
+      <c r="G27" s="36">
+        <v>43275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="36">
+        <v>43275</v>
+      </c>
+      <c r="G28" s="36">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G30" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G31" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="36">
+        <v>43274</v>
+      </c>
+      <c r="G32" s="36">
+        <v>43275</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="36">
+        <v>43275</v>
+      </c>
+      <c r="G33" s="36">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G35" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G36" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="36">
+        <v>43274</v>
+      </c>
+      <c r="G37" s="36">
+        <v>43275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="36">
+        <v>43275</v>
+      </c>
+      <c r="G38" s="36">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G40" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G41" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="36">
+        <v>43274</v>
+      </c>
+      <c r="G42" s="36">
+        <v>43275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="36">
+        <v>43275</v>
+      </c>
+      <c r="G43" s="36">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G45" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G46" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="36">
+        <v>43274</v>
+      </c>
+      <c r="G47" s="36">
+        <v>43275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="36">
+        <v>43275</v>
+      </c>
+      <c r="G48" s="36">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B50" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D50" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="E50" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G50" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G51" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="13"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="36">
+        <v>43276</v>
+      </c>
+      <c r="G52" s="36">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="36">
+        <v>43277</v>
+      </c>
+      <c r="G53" s="36">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="19"/>
+      <c r="D55" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G55" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G56" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="13"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="36">
+        <v>43276</v>
+      </c>
+      <c r="G57" s="36">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="36">
+        <v>43277</v>
+      </c>
+      <c r="G58" s="36">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
+      <c r="D60" s="13"/>
+      <c r="E60" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G60" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G61" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="36">
+        <v>43276</v>
+      </c>
+      <c r="G62" s="36">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="36">
+        <v>43277</v>
+      </c>
+      <c r="G63" s="36">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="B65" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
+      <c r="D65" s="18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="E65" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G65" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G66" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="36">
+        <v>43276</v>
+      </c>
+      <c r="G67" s="36">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="36">
+        <v>43277</v>
+      </c>
+      <c r="G68" s="36">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E70" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G70" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="13"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G71" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="36">
+        <v>43276</v>
+      </c>
+      <c r="G72" s="36">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="36">
+        <v>43277</v>
+      </c>
+      <c r="G73" s="36">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="23"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="E75" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" s="26">
+        <v>43272</v>
+      </c>
+      <c r="G75" s="26">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="36">
+        <v>43273</v>
+      </c>
+      <c r="G76" s="36">
+        <v>43274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="36">
+        <v>43276</v>
+      </c>
+      <c r="G77" s="36">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" s="36">
+        <v>43277</v>
+      </c>
+      <c r="G78" s="36">
+        <v>43278</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="D65:D68"/>
+    <mergeCell ref="C65:C78"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D75:D78"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="A50:A63"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="D60:D63"/>
+    <mergeCell ref="C50:C58"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="C25:C38"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="A15:A48"/>
+    <mergeCell ref="A65:A78"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="B35:B38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43272</v>
-      </c>
-      <c r="F3" s="1">
-        <v>43273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>43272</v>
-      </c>
-      <c r="F4" s="1">
-        <v>43273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43272</v>
-      </c>
-      <c r="F5" s="1">
-        <v>43273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1">
-        <v>43272</v>
-      </c>
-      <c r="F13" s="1">
-        <v>43273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1">
-        <v>43272</v>
-      </c>
-      <c r="F15" s="1">
-        <v>43273</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>